--- a/data/50_e_1_st_measurements.xlsx
+++ b/data/50_e_1_st_measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcaldeira\github\floor_plan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07E3BF-E188-4BE5-8B3C-457A157E2AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D30C4-7B37-4B7A-84C1-776167217C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26580" yWindow="1290" windowWidth="11145" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
@@ -18,24 +18,11 @@
     <sheet name="Initial Coordinates" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="52">
   <si>
     <t>First point ID</t>
   </si>
@@ -184,31 +171,13 @@
     <t>Optimized Y</t>
   </si>
   <si>
-    <t>Line Group</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>L5,L6</t>
-  </si>
-  <si>
-    <t>L4,L6</t>
+    <t>Line Orientation</t>
+  </si>
+  <si>
+    <t>ignore</t>
+  </si>
+  <si>
+    <t>Weight</t>
   </si>
 </sst>
 </file>
@@ -218,7 +187,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +200,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,7 +223,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -263,22 +246,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -293,8 +265,11 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,15 +573,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,410 +591,581 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>220.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>116.25</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>109.25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>8.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>71.25</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>67.75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>80.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C12">
+        <v>115.75</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>9.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>93.75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17">
+        <v>63.25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>42.75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>25.75</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>73.5</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>47.5</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>41.5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="C3">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4">
-        <v>187.5</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C25">
+        <v>99.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>138</v>
+      </c>
+      <c r="F26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>93.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>88.25</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>20.75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>58.25</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>184.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>130</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>32.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>8.25</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>116.25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>115.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>109.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>21.25</v>
+      </c>
+      <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="C13">
-        <v>93.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15">
-        <v>89.5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>88.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17">
-        <v>80.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>73.5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>71.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>67.75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>63.25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>58.25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>50.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>47.5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>47</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29">
-        <v>45.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31">
-        <v>42.75</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>41.5</v>
-      </c>
-      <c r="F32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34">
-        <v>39.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -1030,10 +1176,16 @@
         <v>36.125</v>
       </c>
       <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -1043,251 +1195,432 @@
       <c r="C36">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C37">
-        <v>32.5</v>
-      </c>
-      <c r="H37" t="s">
+        <v>89.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
       <c r="C38">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41.5</v>
+      </c>
+      <c r="F38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21.25</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
         <v>13</v>
       </c>
-      <c r="B40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>17</v>
       </c>
       <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41">
+        <v>187.5</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
         <v>18</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>39.25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>1.5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C45">
+        <v>32.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43">
-        <v>25.75</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>32.5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48">
+        <v>220.75</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>19</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B50" t="s">
         <v>27</v>
       </c>
-      <c r="C44">
+      <c r="C50">
         <v>23.75</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47">
-        <v>20.75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>50.5</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>50.25</v>
+      </c>
+      <c r="F52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>45.25</v>
+      </c>
+      <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="C48">
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54">
+        <v>202</v>
+      </c>
+      <c r="F54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55">
+        <v>184.5</v>
+      </c>
+      <c r="F55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>130</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49">
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
         <v>39</v>
       </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C51">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54">
-        <v>8.25</v>
-      </c>
-      <c r="E54" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57">
-        <v>1.5</v>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H57">
-    <sortCondition descending="1" ref="C2:C57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J57">
     <sortCondition ref="A2:A57"/>
+    <sortCondition ref="B2:B57"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1295,15 +1628,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E74788-F5CC-4CE0-9BA4-CCCBBD0054FF}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1316,11 +1649,8 @@
       <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1333,11 +1663,8 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1350,11 +1677,8 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1364,11 +1688,8 @@
       <c r="C4">
         <v>32.5</v>
       </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1378,11 +1699,8 @@
       <c r="C5">
         <v>99.75</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1392,11 +1710,8 @@
       <c r="C6">
         <v>99.75</v>
       </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1406,11 +1721,8 @@
       <c r="C7">
         <v>180.5</v>
       </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1420,11 +1732,8 @@
       <c r="C8">
         <v>180.5</v>
       </c>
-      <c r="E8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1434,11 +1743,8 @@
       <c r="C9">
         <v>274.25</v>
       </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1448,11 +1754,8 @@
       <c r="C10">
         <v>272.25</v>
       </c>
-      <c r="E10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1463,7 +1766,7 @@
         <v>272.25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1474,7 +1777,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1484,11 +1787,8 @@
       <c r="C13">
         <v>274.25</v>
       </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1498,11 +1798,8 @@
       <c r="C14">
         <v>410.5</v>
       </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1513,7 +1810,7 @@
         <v>410.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1524,7 +1821,7 @@
         <v>322.25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1534,11 +1831,8 @@
       <c r="C17">
         <v>322.25</v>
       </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1548,11 +1842,8 @@
       <c r="C18">
         <v>309.25</v>
       </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1562,11 +1853,8 @@
       <c r="C19">
         <v>277.25</v>
       </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1576,11 +1864,8 @@
       <c r="C20">
         <v>269</v>
       </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1590,11 +1875,8 @@
       <c r="C21">
         <v>269</v>
       </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1604,11 +1886,8 @@
       <c r="C22">
         <v>232.75</v>
       </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1618,11 +1897,8 @@
       <c r="C23">
         <v>232.75</v>
       </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -1632,11 +1908,8 @@
       <c r="C24">
         <v>39.25</v>
       </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1646,11 +1919,8 @@
       <c r="C25">
         <v>39.25</v>
       </c>
-      <c r="E25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1660,11 +1930,8 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1674,11 +1941,8 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1688,11 +1952,8 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1702,11 +1963,8 @@
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1716,11 +1974,8 @@
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -1730,11 +1985,8 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1744,11 +1996,8 @@
       <c r="C32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1759,7 +2008,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1770,7 +2019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1781,11 +2030,8 @@
         <f>410.5-93.5</f>
         <v>317</v>
       </c>
-      <c r="E35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -1795,12 +2041,9 @@
       <c r="C36">
         <v>39.25</v>
       </c>
-      <c r="E36" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
